--- a/natmiOut/OldD7/LR-pairs_lrc2p/Fn1-Tnfrsf11b.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Fn1-Tnfrsf11b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,60 +528,60 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.412314546899</v>
+        <v>19.95578266666667</v>
       </c>
       <c r="H2">
-        <v>16.412314546899</v>
+        <v>59.867348</v>
       </c>
       <c r="I2">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="J2">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>2.18898490189816</v>
+        <v>0.1085253333333333</v>
       </c>
       <c r="N2">
-        <v>2.18898490189816</v>
+        <v>0.325576</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.04110788357328589</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.04110788357328589</v>
       </c>
       <c r="Q2">
-        <v>35.92630874836546</v>
+        <v>2.165707965827556</v>
       </c>
       <c r="R2">
-        <v>35.92630874836546</v>
+        <v>19.491371692448</v>
       </c>
       <c r="S2">
-        <v>0.009751784795650554</v>
+        <v>0.0004824972869855297</v>
       </c>
       <c r="T2">
-        <v>0.009751784795650554</v>
+        <v>0.0004824972869855297</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -593,57 +593,57 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1628.01314247892</v>
+        <v>19.95578266666667</v>
       </c>
       <c r="H3">
-        <v>1628.01314247892</v>
+        <v>59.867348</v>
       </c>
       <c r="I3">
-        <v>0.9673244906791579</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="J3">
-        <v>0.9673244906791579</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.18898490189816</v>
+        <v>2.214957333333333</v>
       </c>
       <c r="N3">
-        <v>2.18898490189816</v>
+        <v>6.644871999999999</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.8389949644181</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.8389949644181001</v>
       </c>
       <c r="Q3">
-        <v>3563.696188978134</v>
+        <v>44.20120715993955</v>
       </c>
       <c r="R3">
-        <v>3563.696188978134</v>
+        <v>397.8108644394559</v>
       </c>
       <c r="S3">
-        <v>0.9673244906791579</v>
+        <v>0.009847570804869248</v>
       </c>
       <c r="T3">
-        <v>0.9673244906791579</v>
+        <v>0.009847570804869249</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.2701060874532</v>
+        <v>19.95578266666667</v>
       </c>
       <c r="H4">
-        <v>13.2701060874532</v>
+        <v>59.867348</v>
       </c>
       <c r="I4">
-        <v>0.007884763505507309</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="J4">
-        <v>0.007884763505507309</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>2.18898490189816</v>
+        <v>0.31653</v>
       </c>
       <c r="N4">
-        <v>2.18898490189816</v>
+        <v>0.9495899999999999</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.1198971520086141</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.1198971520086141</v>
       </c>
       <c r="Q4">
-        <v>29.04806187202192</v>
+        <v>6.31660388748</v>
       </c>
       <c r="R4">
-        <v>29.04806187202192</v>
+        <v>56.84943498732</v>
       </c>
       <c r="S4">
-        <v>0.007884763505507309</v>
+        <v>0.001407273873837719</v>
       </c>
       <c r="T4">
-        <v>0.007884763505507309</v>
+        <v>0.001407273873837719</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,551 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1637.343343333333</v>
+      </c>
+      <c r="H5">
+        <v>4912.03003</v>
+      </c>
+      <c r="I5">
+        <v>0.9630320723052701</v>
+      </c>
+      <c r="J5">
+        <v>0.9630320723052702</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.1085253333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.325576</v>
+      </c>
+      <c r="O5">
+        <v>0.04110788357328589</v>
+      </c>
+      <c r="P5">
+        <v>0.04110788357328589</v>
+      </c>
+      <c r="Q5">
+        <v>177.6932321163644</v>
+      </c>
+      <c r="R5">
+        <v>1599.23908904728</v>
+      </c>
+      <c r="S5">
+        <v>0.03958821030566528</v>
+      </c>
+      <c r="T5">
+        <v>0.03958821030566528</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>25.3106650614045</v>
-      </c>
-      <c r="H5">
-        <v>25.3106650614045</v>
-      </c>
-      <c r="I5">
-        <v>0.01503896101968408</v>
-      </c>
-      <c r="J5">
-        <v>0.01503896101968408</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>2.18898490189816</v>
-      </c>
-      <c r="N5">
-        <v>2.18898490189816</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>55.40466367641572</v>
-      </c>
-      <c r="R5">
-        <v>55.40466367641572</v>
-      </c>
-      <c r="S5">
-        <v>0.01503896101968408</v>
-      </c>
-      <c r="T5">
-        <v>0.01503896101968408</v>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1637.343343333333</v>
+      </c>
+      <c r="H6">
+        <v>4912.03003</v>
+      </c>
+      <c r="I6">
+        <v>0.9630320723052701</v>
+      </c>
+      <c r="J6">
+        <v>0.9630320723052702</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2.214957333333333</v>
+      </c>
+      <c r="N6">
+        <v>6.644871999999999</v>
+      </c>
+      <c r="O6">
+        <v>0.8389949644181</v>
+      </c>
+      <c r="P6">
+        <v>0.8389949644181001</v>
+      </c>
+      <c r="Q6">
+        <v>3626.645645500684</v>
+      </c>
+      <c r="R6">
+        <v>32639.81080950616</v>
+      </c>
+      <c r="S6">
+        <v>0.8079790592372491</v>
+      </c>
+      <c r="T6">
+        <v>0.8079790592372493</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1637.343343333333</v>
+      </c>
+      <c r="H7">
+        <v>4912.03003</v>
+      </c>
+      <c r="I7">
+        <v>0.9630320723052701</v>
+      </c>
+      <c r="J7">
+        <v>0.9630320723052702</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.31653</v>
+      </c>
+      <c r="N7">
+        <v>0.9495899999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.1198971520086141</v>
+      </c>
+      <c r="P7">
+        <v>0.1198971520086141</v>
+      </c>
+      <c r="Q7">
+        <v>518.2682884653</v>
+      </c>
+      <c r="R7">
+        <v>4664.414596187699</v>
+      </c>
+      <c r="S7">
+        <v>0.1154648027623556</v>
+      </c>
+      <c r="T7">
+        <v>0.1154648027623556</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>17.50081933333334</v>
+      </c>
+      <c r="H8">
+        <v>52.502458</v>
+      </c>
+      <c r="I8">
+        <v>0.01029341242216722</v>
+      </c>
+      <c r="J8">
+        <v>0.01029341242216722</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.1085253333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.325576</v>
+      </c>
+      <c r="O8">
+        <v>0.04110788357328589</v>
+      </c>
+      <c r="P8">
+        <v>0.04110788357328589</v>
+      </c>
+      <c r="Q8">
+        <v>1.899282251756444</v>
+      </c>
+      <c r="R8">
+        <v>17.093540265808</v>
+      </c>
+      <c r="S8">
+        <v>0.0004231403994222647</v>
+      </c>
+      <c r="T8">
+        <v>0.0004231403994222648</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>17.50081933333334</v>
+      </c>
+      <c r="H9">
+        <v>52.502458</v>
+      </c>
+      <c r="I9">
+        <v>0.01029341242216722</v>
+      </c>
+      <c r="J9">
+        <v>0.01029341242216722</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.214957333333333</v>
+      </c>
+      <c r="N9">
+        <v>6.644871999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.8389949644181</v>
+      </c>
+      <c r="P9">
+        <v>0.8389949644181001</v>
+      </c>
+      <c r="Q9">
+        <v>38.76356812170845</v>
+      </c>
+      <c r="R9">
+        <v>348.872113095376</v>
+      </c>
+      <c r="S9">
+        <v>0.008636121188877013</v>
+      </c>
+      <c r="T9">
+        <v>0.008636121188877015</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>17.50081933333334</v>
+      </c>
+      <c r="H10">
+        <v>52.502458</v>
+      </c>
+      <c r="I10">
+        <v>0.01029341242216722</v>
+      </c>
+      <c r="J10">
+        <v>0.01029341242216722</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.31653</v>
+      </c>
+      <c r="N10">
+        <v>0.9495899999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.1198971520086141</v>
+      </c>
+      <c r="P10">
+        <v>0.1198971520086141</v>
+      </c>
+      <c r="Q10">
+        <v>5.539534343580001</v>
+      </c>
+      <c r="R10">
+        <v>49.85580909222</v>
+      </c>
+      <c r="S10">
+        <v>0.00123415083386794</v>
+      </c>
+      <c r="T10">
+        <v>0.00123415083386794</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>25.39612333333333</v>
+      </c>
+      <c r="H11">
+        <v>76.18836999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.01493717330687017</v>
+      </c>
+      <c r="J11">
+        <v>0.01493717330687017</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.1085253333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.325576</v>
+      </c>
+      <c r="O11">
+        <v>0.04110788357328589</v>
+      </c>
+      <c r="P11">
+        <v>0.04110788357328589</v>
+      </c>
+      <c r="Q11">
+        <v>2.756122750124444</v>
+      </c>
+      <c r="R11">
+        <v>24.80510475111999</v>
+      </c>
+      <c r="S11">
+        <v>0.0006140355812128127</v>
+      </c>
+      <c r="T11">
+        <v>0.0006140355812128127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>25.39612333333333</v>
+      </c>
+      <c r="H12">
+        <v>76.18836999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.01493717330687017</v>
+      </c>
+      <c r="J12">
+        <v>0.01493717330687017</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.214957333333333</v>
+      </c>
+      <c r="N12">
+        <v>6.644871999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.8389949644181</v>
+      </c>
+      <c r="P12">
+        <v>0.8389949644181001</v>
+      </c>
+      <c r="Q12">
+        <v>56.25132961540443</v>
+      </c>
+      <c r="R12">
+        <v>506.2619665386399</v>
+      </c>
+      <c r="S12">
+        <v>0.01253221318710453</v>
+      </c>
+      <c r="T12">
+        <v>0.01253221318710453</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>25.39612333333333</v>
+      </c>
+      <c r="H13">
+        <v>76.18836999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.01493717330687017</v>
+      </c>
+      <c r="J13">
+        <v>0.01493717330687017</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.31653</v>
+      </c>
+      <c r="N13">
+        <v>0.9495899999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.1198971520086141</v>
+      </c>
+      <c r="P13">
+        <v>0.1198971520086141</v>
+      </c>
+      <c r="Q13">
+        <v>8.0386349187</v>
+      </c>
+      <c r="R13">
+        <v>72.34771426829998</v>
+      </c>
+      <c r="S13">
+        <v>0.001790924538552826</v>
+      </c>
+      <c r="T13">
+        <v>0.001790924538552826</v>
       </c>
     </row>
   </sheetData>
